--- a/energies.xlsx
+++ b/energies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongenergy-my.sharepoint.com/personal/konli_orsted_com/Documents/Desktop/sandbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10482BA99A62DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76D13843-4705-40D2-8EB0-238C53128EB4}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC10482BA99A62DE5BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46AEF5EC-13F6-4D91-B4F3-BB64BD49229A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8025" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
